--- a/TestData_K/K_NETS_NYPS_68Bus_LowDamping.xlsx
+++ b/TestData_K/K_NETS_NYPS_68Bus_LowDamping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData_K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A56F8-3947-4C51-B0F2-07B07968F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1F48F-245A-46A6-A9B1-E68661961833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
